--- a/Estrategia del proyecto/Bitacoras/PDbitacoraLE.xlsx
+++ b/Estrategia del proyecto/Bitacoras/PDbitacoraLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielPena\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielPena\Desktop\ProyectoRapicoop\Semana 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>METFOR</t>
   </si>
@@ -156,6 +156,33 @@
   </si>
   <si>
     <t>Santiago Galeano Cancino</t>
+  </si>
+  <si>
+    <t>Se realizo el acta de reuñion</t>
+  </si>
+  <si>
+    <t>Se planeo y se finalizo el documento de estrategia</t>
+  </si>
+  <si>
+    <t>Se elaboro el acta de iniciacion de la etapa</t>
+  </si>
+  <si>
+    <t>Realizacion del plan de manejo de riesgos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culminacion del plan de administracion de configuracion y riesgos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planear y realizacion del documento de estrategia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se realiza entrega de documento al lider de soporte </t>
+  </si>
+  <si>
+    <t>Elaboracion y distribucion de tiempo en la bitacora</t>
+  </si>
+  <si>
+    <t>Realizacion y revision del informe semanal</t>
   </si>
 </sst>
 </file>
@@ -464,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -549,6 +576,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,7 +955,7 @@
   <dimension ref="A2:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1093,9 @@
       <c r="G16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="22"/>
+      <c r="H16" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="I16" s="23" t="s">
         <v>40</v>
       </c>
@@ -1087,7 +1122,9 @@
       <c r="G17" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" s="22" t="s">
+        <v>44</v>
+      </c>
       <c r="I17" s="23" t="s">
         <v>40</v>
       </c>
@@ -1114,7 +1151,9 @@
       <c r="G18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="I18" s="23" t="s">
         <v>40</v>
       </c>
@@ -1141,7 +1180,9 @@
       <c r="G19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="22" t="s">
+        <v>46</v>
+      </c>
       <c r="I19" s="23" t="s">
         <v>40</v>
       </c>
@@ -1171,7 +1212,9 @@
       <c r="G20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="22"/>
+      <c r="H20" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="I20" s="23" t="s">
         <v>40</v>
       </c>
@@ -1198,7 +1241,9 @@
       <c r="G21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="I21" s="23" t="s">
         <v>40</v>
       </c>
@@ -1225,7 +1270,9 @@
       <c r="G22" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="22"/>
+      <c r="H22" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="I22" s="23" t="s">
         <v>40</v>
       </c>
@@ -1252,7 +1299,9 @@
       <c r="G23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="43" t="s">
+        <v>50</v>
+      </c>
       <c r="I23" s="19" t="s">
         <v>40</v>
       </c>
@@ -1279,7 +1328,9 @@
       <c r="G24" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="25"/>
+      <c r="H24" s="44" t="s">
+        <v>51</v>
+      </c>
       <c r="I24" s="25" t="s">
         <v>40</v>
       </c>
